--- a/temp/THU CHI T8-22.xlsx
+++ b/temp/THU CHI T8-22.xlsx
@@ -33024,7 +33024,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="361" t="str">
         <f>"CTY CP-DT-TM HIEP BINH      Ngay: "&amp;TEXT(NOW(),"dd/mm/yyyy")</f>
-        <v>CTY CP-DT-TM HIEP BINH      Ngay: 26/09/2022</v>
+        <v>CTY CP-DT-TM HIEP BINH      Ngay: 28/09/2022</v>
       </c>
       <c r="B1" s="361"/>
       <c r="C1" s="361"/>

--- a/temp/THU CHI T8-22.xlsx
+++ b/temp/THU CHI T8-22.xlsx
@@ -33024,7 +33024,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="361" t="str">
         <f>"CTY CP-DT-TM HIEP BINH      Ngay: "&amp;TEXT(NOW(),"dd/mm/yyyy")</f>
-        <v>CTY CP-DT-TM HIEP BINH      Ngay: 28/09/2022</v>
+        <v>CTY CP-DT-TM HIEP BINH      Ngay: 29/09/2022</v>
       </c>
       <c r="B1" s="361"/>
       <c r="C1" s="361"/>
@@ -33058,7 +33058,7 @@
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="361" t="str">
         <f>"Ecco - Crescent Mall                 Gio:       "&amp;TEXT(NOW(),"hh:mm")</f>
-        <v>Ecco - Crescent Mall                 Gio:       07:47</v>
+        <v>Ecco - Crescent Mall                 Gio:       08:12</v>
       </c>
       <c r="B2" s="361"/>
       <c r="C2" s="361"/>

--- a/temp/THU CHI T8-22.xlsx
+++ b/temp/THU CHI T8-22.xlsx
@@ -33058,7 +33058,7 @@
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="361" t="str">
         <f>"Ecco - Crescent Mall                 Gio:       "&amp;TEXT(NOW(),"hh:mm")</f>
-        <v>Ecco - Crescent Mall                 Gio:       08:12</v>
+        <v>Ecco - Crescent Mall                 Gio:       22:03</v>
       </c>
       <c r="B2" s="361"/>
       <c r="C2" s="361"/>
